--- a/bitcoins.xlsx
+++ b/bitcoins.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphen" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Daten" r:id="rId4"/>
+    <sheet sheetId="2" name="Graphen" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Kursschwankung</t>
   </si>
@@ -49,6 +48,12 @@
   </si>
   <si>
     <t>Differenz</t>
+  </si>
+  <si>
+    <t>2017.12.29 21:29:32</t>
+  </si>
+  <si>
+    <t>2017.12.29 21:31:15</t>
   </si>
   <si>
     <t>Meine Käufe</t>
@@ -116,43 +121,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000_ ;-#,##0.0000 "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;-#,##0.00 "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00 &quot;€&quot;_-;-* #,##0.00 &quot;€&quot;_-;_-* &quot;-&quot;?? &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF555555"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF555555"/>
+      <family val="2"/>
       <sz val="8"/>
-      <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF555555"/>
+      <family val="2"/>
       <sz val="9"/>
-      <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF555555"/>
+      <family val="2"/>
       <sz val="10"/>
-      <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,6 +223,10 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -232,19 +241,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,13 +559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="3" max="4" width="15.140625" customWidth="1"/>
@@ -584,8 +587,12 @@
         <f>MAX(D3:D998)-MIN(D3:D998)</f>
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1">
+        <f>MAX(E3:E998)-MIN(E3:E998)</f>
+        <v>0.2966</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43082.860416655094</v>
       </c>
@@ -613,9 +620,9 @@
         <v>588.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43082.867361087963</v>
+        <v>43082.86736108796</v>
       </c>
       <c r="B4" s="4">
         <v>13475</v>
@@ -628,7 +635,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43082.874305543985</v>
       </c>
@@ -636,13 +643,13 @@
         <v>13484.99</v>
       </c>
       <c r="C5" s="1">
-        <v>1293.3900000000001</v>
+        <v>1293.39</v>
       </c>
       <c r="D5">
-        <v>574.79999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>574.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43082.879166666666</v>
       </c>
@@ -656,7 +663,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43082.882638877316</v>
       </c>
@@ -670,9 +677,9 @@
         <v>578.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43082.886111111111</v>
+        <v>43082.88611111111</v>
       </c>
       <c r="B8" s="8">
         <v>13434.9</v>
@@ -684,9 +691,9 @@
         <v>577.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43082.894444421298</v>
+        <v>43082.8944444213</v>
       </c>
       <c r="B9" s="4">
         <v>13434.9</v>
@@ -698,9 +705,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43082.908333333333</v>
+        <v>43082.90833333333</v>
       </c>
       <c r="B10" s="4">
         <v>13394</v>
@@ -712,7 +719,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43082.943749976854</v>
       </c>
@@ -726,9 +733,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43083.311111099538</v>
+        <v>43083.31111109954</v>
       </c>
       <c r="B12" s="1">
         <v>13340</v>
@@ -740,7 +747,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43083.83172451389</v>
       </c>
@@ -754,9 +761,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43083.833749976853</v>
+        <v>43083.83374997685</v>
       </c>
       <c r="B14">
         <v>13395</v>
@@ -768,9 +775,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43083.836574062501</v>
+        <v>43083.8365740625</v>
       </c>
       <c r="B15">
         <v>13399</v>
@@ -782,9 +789,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43083.839201388888</v>
+        <v>43083.83920138889</v>
       </c>
       <c r="B16">
         <v>13399</v>
@@ -796,7 +803,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43084.29</v>
       </c>
@@ -853,7 +860,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43085.372905081022</v>
+        <v>43085.37290508102</v>
       </c>
       <c r="B19">
         <v>14498</v>
@@ -872,19 +879,19 @@
       </c>
       <c r="H19">
         <f>F19*0.0011</f>
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="I19">
         <f>1/(G19/F19)</f>
-        <v>3.7243947858472994E-2</v>
+        <v>0.037243947858472994</v>
       </c>
       <c r="K19">
         <f>I19</f>
-        <v>3.7243947858472994E-2</v>
+        <v>0.037243947858472994</v>
       </c>
       <c r="L19">
         <f>K19*0.001</f>
-        <v>3.7243947858472994E-5</v>
+        <v>0.000037243947858472994</v>
       </c>
       <c r="M19">
         <v>12550</v>
@@ -895,7 +902,7 @@
       </c>
       <c r="O19">
         <f>N19-F19</f>
-        <v>-32.588454376163952</v>
+        <v>-32.58845437616395</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,7 +926,7 @@
       </c>
       <c r="H20">
         <f>F20*0.0011</f>
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="I20">
         <f>1/(G20/F20)</f>
@@ -931,23 +938,23 @@
       </c>
       <c r="L20">
         <f>K20*0.001</f>
-        <v>3.909304143862393E-4</v>
+        <v>0.0003909304143862393</v>
       </c>
       <c r="M20">
         <v>2235</v>
       </c>
       <c r="N20">
         <f>K20*M20</f>
-        <v>873.72947615324472</v>
+        <v>873.7294761532447</v>
       </c>
       <c r="O20">
         <f>N20-F20</f>
-        <v>373.72947615324472</v>
+        <v>373.7294761532447</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43085.403854166667</v>
+        <v>43085.40385416667</v>
       </c>
       <c r="B21">
         <v>14500</v>
@@ -966,35 +973,35 @@
       </c>
       <c r="H21">
         <f>F21*0.0011</f>
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="I21">
         <f>1/(G21/F21)</f>
-        <v>0.84976206662134612</v>
+        <v>0.8497620666213461</v>
       </c>
       <c r="K21">
         <f>I21</f>
-        <v>0.84976206662134612</v>
+        <v>0.8497620666213461</v>
       </c>
       <c r="L21">
         <f>K21*0.001</f>
-        <v>8.4976206662134614E-4</v>
+        <v>0.0008497620666213461</v>
       </c>
       <c r="M21">
         <v>642</v>
       </c>
       <c r="N21">
         <f>K21*M21</f>
-        <v>545.54724677090417</v>
+        <v>545.5472467709042</v>
       </c>
       <c r="O21">
         <f>N21-F21</f>
-        <v>45.547246770904167</v>
+        <v>45.54724677090417</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43085.425543981481</v>
+        <v>43085.42554398148</v>
       </c>
       <c r="B22">
         <v>14339</v>
@@ -1016,31 +1023,31 @@
       </c>
       <c r="I22">
         <f>1/(G22/F22)</f>
-        <v>416.66666666666669</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="K22">
         <f>I22</f>
-        <v>416.66666666666669</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="L22">
         <f>K22*0.001</f>
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M22">
         <v>1.4</v>
       </c>
       <c r="N22">
         <f>K22*M22</f>
-        <v>583.33333333333337</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="O22">
         <f>N22-F22</f>
-        <v>83.333333333333371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>83.33333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43085.426493043982</v>
+        <v>43085.42649304398</v>
       </c>
       <c r="B23">
         <v>14557</v>
@@ -1052,7 +1059,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43085.447106458334</v>
       </c>
@@ -1066,9 +1073,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43085.580381932872</v>
+        <v>43085.58038193287</v>
       </c>
       <c r="B25">
         <v>14969</v>
@@ -1080,7 +1087,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43085.595324050926</v>
       </c>
@@ -1094,9 +1101,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43085.662395833337</v>
+        <v>43085.66239583334</v>
       </c>
       <c r="B27">
         <v>15178</v>
@@ -1108,9 +1115,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43085.760127314818</v>
+        <v>43085.76012731482</v>
       </c>
       <c r="B28">
         <v>15489</v>
@@ -1122,9 +1129,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43085.919178240743</v>
+        <v>43085.91917824074</v>
       </c>
       <c r="B29">
         <v>15798</v>
@@ -1136,9 +1143,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43085.946759247687</v>
+        <v>43085.94675924769</v>
       </c>
       <c r="B30">
         <v>15897</v>
@@ -1150,9 +1157,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43086.398680532409</v>
+        <v>43086.39868053241</v>
       </c>
       <c r="B31">
         <v>15650</v>
@@ -1164,7 +1171,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43086.544710636575</v>
       </c>
@@ -1180,7 +1187,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43086.898032407407</v>
+        <v>43086.89803240741</v>
       </c>
       <c r="B33">
         <v>15479</v>
@@ -1222,7 +1229,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43087.724733796298</v>
+        <v>43087.7247337963</v>
       </c>
       <c r="B36">
         <v>15499</v>
@@ -1250,7 +1257,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43087.908125000002</v>
+        <v>43087.908125</v>
       </c>
       <c r="B38">
         <v>15588</v>
@@ -1264,7 +1271,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43088.264178229168</v>
+        <v>43088.26417822917</v>
       </c>
       <c r="B39">
         <v>15546</v>
@@ -1278,7 +1285,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43088.857615729168</v>
+        <v>43088.85761572917</v>
       </c>
       <c r="B40">
         <v>15178</v>
@@ -1292,7 +1299,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43089.221342581019</v>
+        <v>43089.22134258102</v>
       </c>
       <c r="B41">
         <v>14331</v>
@@ -1306,7 +1313,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43089.930277777778</v>
+        <v>43089.93027777778</v>
       </c>
       <c r="B42">
         <v>13379</v>
@@ -1376,7 +1383,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43097.496944444443</v>
+        <v>43097.49694444444</v>
       </c>
       <c r="B47">
         <v>12199</v>
@@ -1390,7 +1397,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43097.717013888891</v>
+        <v>43097.71701388889</v>
       </c>
       <c r="B48">
         <v>12390</v>
@@ -1402,7 +1409,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43098.248148136576</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43098.31473377315</v>
       </c>
@@ -1430,9 +1437,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43098.401539340281</v>
+        <v>43098.40153934028</v>
       </c>
       <c r="B51">
         <v>12399</v>
@@ -1444,9 +1451,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43098.518391203703</v>
+        <v>43098.5183912037</v>
       </c>
       <c r="B52">
         <v>12299</v>
@@ -1458,9 +1465,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43098.556319432872</v>
+        <v>43098.55631943287</v>
       </c>
       <c r="B53">
         <v>12301</v>
@@ -1474,7 +1481,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43098.713287037041</v>
+        <v>43098.71328703704</v>
       </c>
       <c r="B54">
         <v>12575</v>
@@ -1484,6 +1491,9 @@
       </c>
       <c r="D54">
         <v>642</v>
+      </c>
+      <c r="E54">
+        <v>1.2072</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1505,7 +1515,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43098.753194432866</v>
+        <v>43098.7531944213</v>
       </c>
       <c r="B56">
         <v>12550</v>
@@ -1522,13 +1532,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43098.764907407407</v>
+        <v>43098.76490740741</v>
       </c>
       <c r="B57">
         <v>12500</v>
       </c>
       <c r="C57">
-        <v>2269.1999999999998</v>
+        <v>2269.2</v>
       </c>
       <c r="D57">
         <v>647.99</v>
@@ -1537,9 +1547,87 @@
         <v>1.3976</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43098.80824074074</v>
+      </c>
+      <c r="B58">
+        <v>12523</v>
+      </c>
+      <c r="C58">
+        <v>2255</v>
+      </c>
+      <c r="D58">
+        <v>639</v>
+      </c>
+      <c r="E58">
+        <v>1.5038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43098.85217590278</v>
+      </c>
+      <c r="B59">
+        <v>12500</v>
+      </c>
+      <c r="C59">
+        <v>2268.8</v>
+      </c>
+      <c r="D59">
+        <v>647.5</v>
+      </c>
+      <c r="E59">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>43098.89494107639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>12439</v>
+      </c>
+      <c r="C61">
+        <v>2248.8</v>
+      </c>
+      <c r="D61">
+        <v>644.94</v>
+      </c>
+      <c r="E61">
+        <v>1.5982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>43098.8961419213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>12439</v>
+      </c>
+      <c r="C63">
+        <v>2248.5</v>
+      </c>
+      <c r="D63">
+        <v>644</v>
+      </c>
+      <c r="E63">
+        <v>1.5982</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -1547,11 +1635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -1565,79 +1653,79 @@
     <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11"/>
-      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12" t="s">
+    </row>
+    <row r="2" ht="28.5" customHeight="1" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <f>SUMIF(E4:E999,"BTC",(D4:D999))</f>
         <v>134</v>
       </c>
-      <c r="I3" s="13">
-        <f t="array" ref="I3">INDEX(Daten!B:B,MAX(ISNUMBER(Daten!B3:B999)*ROW(Daten!B3:B999)))</f>
+      <c r="I3" s="15">
+        <f>INDEX(Daten!B:B,MAX(ISNUMBER(Daten!B3:B999)*ROW(Daten!B3:B999)))</f>
         <v>12500</v>
       </c>
       <c r="J3">
@@ -1653,52 +1741,52 @@
         <v>-10.25</v>
       </c>
       <c r="N3" s="2">
-        <v>43098.541666666664</v>
+        <v>43098.54166664352</v>
       </c>
       <c r="O3">
         <v>0.19</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="14">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="16">
         <f>O3/R3</f>
-        <v>1.8897951064253034E-3</v>
-      </c>
-      <c r="R3" s="15">
+        <v>0.0018897951064253034</v>
+      </c>
+      <c r="R3" s="17">
         <v>100.54</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43096.541666666664</v>
+        <v>43096.54166664352</v>
       </c>
       <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>13400</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <f>C4*B4</f>
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="H4">
         <f>SUMIF(E4:E999,"ETH",(D4:D999))</f>
         <v>123.5</v>
       </c>
-      <c r="I4" s="13">
-        <f t="array" ref="I4">INDEX(Daten!D:D,MAX(ISNUMBER(Daten!D4:D1000)*ROW(Daten!D4:D1000)))</f>
-        <v>647.99</v>
+      <c r="I4" s="15">
+        <f>INDEX(Daten!D:D,MAX(ISNUMBER(Daten!D4:D1000)*ROW(Daten!D4:D1000)))</f>
+        <v>647.5</v>
       </c>
       <c r="J4">
         <f>SUMIF(E4:E999,"ETH",(B4:B999))-SUMIF(P:P,"ETH",O:O)</f>
@@ -1713,33 +1801,33 @@
         <v>-123.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43096.541666666664</v>
+        <v>43096.54166664352</v>
       </c>
       <c r="B5">
         <v>0.19</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>650</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <f>C5*B5</f>
         <v>123.5</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <f>SUMIF(E6:E1001,"BCH",(D6:D1001))</f>
         <v>238.8</v>
       </c>
-      <c r="I5" s="13">
-        <f t="array" ref="I5">INDEX(Daten!C:C,MAX(ISNUMBER(Daten!C4:C1001)*ROW(Daten!C4:C1001)))</f>
-        <v>2269.1999999999998</v>
+      <c r="I5" s="15">
+        <f>INDEX(Daten!C:C,MAX(ISNUMBER(Daten!C4:C1001)*ROW(Daten!C4:C1001)))</f>
+        <v>2268.8</v>
       </c>
       <c r="J5">
         <f>SUMIF(E4:E999,"BCH",(B4:B999))</f>
@@ -1747,29 +1835,29 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>224.65079999999998</v>
+        <v>224.61120000000003</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-14.149200000000036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>-14.188799999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43096.541666666664</v>
+        <v>43096.54166664352</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>2388</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <f>C6*B6</f>
         <v>238.8</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -1778,9 +1866,9 @@
         <f>SUMIF(E4:E999,"RXP",(D4:D999))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13">
-        <f t="array" ref="I6">INDEX(Daten!E:E,MAX(ISNUMBER(Daten!E3:E1000)*ROW(Daten!E3:E1000)))</f>
-        <v>1.3976</v>
+      <c r="I6" s="15">
+        <f>INDEX(Daten!E:E,MAX(ISNUMBER(Daten!E3:E1000)*ROW(Daten!E3:E1000)))</f>
+        <v>1.59</v>
       </c>
       <c r="J6">
         <f>SUMIF(S:S,"XRP",R:R)</f>
@@ -1788,18 +1876,18 @@
       </c>
       <c r="K6">
         <f>I6*J6*0.99</f>
-        <v>139.10955695999999</v>
+        <v>158.260014</v>
       </c>
       <c r="L6">
         <f>K6-H6</f>
-        <v>139.10955695999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+        <v>158.260014</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <f>SUM(H3:H6)</f>
@@ -1807,59 +1895,59 @@
       </c>
       <c r="K7">
         <f>SUM(K3:K6)</f>
-        <v>487.51035695999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+        <v>506.62121400000007</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/bitcoins.xlsx
+++ b/bitcoins.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Daten" r:id="rId4"/>
-    <sheet sheetId="2" name="Graphen" r:id="rId5"/>
+    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Kursschwankung</t>
   </si>
@@ -50,10 +51,31 @@
     <t>Differenz</t>
   </si>
   <si>
-    <t>2017.12.29 21:29:32</t>
-  </si>
-  <si>
-    <t>2017.12.29 21:31:15</t>
+    <t>2018.01.04 07:25:17</t>
+  </si>
+  <si>
+    <t>2018.01.04 20:05:37</t>
+  </si>
+  <si>
+    <t>2018.01.04 21:53:37</t>
+  </si>
+  <si>
+    <t>2018.01.05 17:24:02</t>
+  </si>
+  <si>
+    <t>2018.01.05 19:11:38</t>
+  </si>
+  <si>
+    <t>2018.01.05 20:55:16</t>
+  </si>
+  <si>
+    <t>2018.01.05 22:08:10</t>
+  </si>
+  <si>
+    <t>2018.01.06 07:47:09</t>
+  </si>
+  <si>
+    <t>2018.01.07 00:21:56</t>
   </si>
   <si>
     <t>Meine Käufe</t>
@@ -121,43 +143,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0000_ ;-#,##0.0000 "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;-#,##0.00 "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00 &quot;€&quot;_-;-* #,##0.00 &quot;€&quot;_-;_-* &quot;-&quot;?? &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
       <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,10 +245,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -241,13 +259,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="3" max="4" width="15.140625" customWidth="1"/>
@@ -585,14 +609,14 @@
       </c>
       <c r="D1" s="1">
         <f>MAX(D3:D998)-MIN(D3:D998)</f>
-        <v>295</v>
+        <v>314.95000000000005</v>
       </c>
       <c r="E1" s="1">
         <f>MAX(E3:E998)-MIN(E3:E998)</f>
-        <v>0.2966</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -606,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43082.860416655094</v>
       </c>
@@ -620,9 +644,9 @@
         <v>588.4</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43082.86736108796</v>
+        <v>43082.867361087963</v>
       </c>
       <c r="B4" s="4">
         <v>13475</v>
@@ -635,7 +659,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43082.874305543985</v>
       </c>
@@ -643,13 +667,13 @@
         <v>13484.99</v>
       </c>
       <c r="C5" s="1">
-        <v>1293.39</v>
+        <v>1293.3900000000001</v>
       </c>
       <c r="D5">
-        <v>574.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>574.79999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43082.879166666666</v>
       </c>
@@ -663,7 +687,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43082.882638877316</v>
       </c>
@@ -677,9 +701,9 @@
         <v>578.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43082.88611111111</v>
+        <v>43082.886111111111</v>
       </c>
       <c r="B8" s="8">
         <v>13434.9</v>
@@ -691,9 +715,9 @@
         <v>577.9</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43082.8944444213</v>
+        <v>43082.894444421298</v>
       </c>
       <c r="B9" s="4">
         <v>13434.9</v>
@@ -705,9 +729,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43082.90833333333</v>
+        <v>43082.908333333333</v>
       </c>
       <c r="B10" s="4">
         <v>13394</v>
@@ -719,7 +743,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43082.943749976854</v>
       </c>
@@ -733,9 +757,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43083.31111109954</v>
+        <v>43083.311111099538</v>
       </c>
       <c r="B12" s="1">
         <v>13340</v>
@@ -747,7 +771,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43083.83172451389</v>
       </c>
@@ -761,9 +785,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43083.83374997685</v>
+        <v>43083.833749976853</v>
       </c>
       <c r="B14">
         <v>13395</v>
@@ -775,9 +799,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43083.8365740625</v>
+        <v>43083.836574062501</v>
       </c>
       <c r="B15">
         <v>13399</v>
@@ -789,9 +813,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43083.83920138889</v>
+        <v>43083.839201388888</v>
       </c>
       <c r="B16">
         <v>13399</v>
@@ -803,7 +827,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43084.29</v>
       </c>
@@ -860,7 +884,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43085.37290508102</v>
+        <v>43085.372905081022</v>
       </c>
       <c r="B19">
         <v>14498</v>
@@ -879,19 +903,19 @@
       </c>
       <c r="H19">
         <f>F19*0.0011</f>
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I19">
         <f>1/(G19/F19)</f>
-        <v>0.037243947858472994</v>
+        <v>3.7243947858472994E-2</v>
       </c>
       <c r="K19">
         <f>I19</f>
-        <v>0.037243947858472994</v>
+        <v>3.7243947858472994E-2</v>
       </c>
       <c r="L19">
         <f>K19*0.001</f>
-        <v>0.000037243947858472994</v>
+        <v>3.7243947858472994E-5</v>
       </c>
       <c r="M19">
         <v>12550</v>
@@ -902,7 +926,7 @@
       </c>
       <c r="O19">
         <f>N19-F19</f>
-        <v>-32.58845437616395</v>
+        <v>-32.588454376163952</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -926,7 +950,7 @@
       </c>
       <c r="H20">
         <f>F20*0.0011</f>
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I20">
         <f>1/(G20/F20)</f>
@@ -938,23 +962,23 @@
       </c>
       <c r="L20">
         <f>K20*0.001</f>
-        <v>0.0003909304143862393</v>
+        <v>3.909304143862393E-4</v>
       </c>
       <c r="M20">
         <v>2235</v>
       </c>
       <c r="N20">
         <f>K20*M20</f>
-        <v>873.7294761532447</v>
+        <v>873.72947615324472</v>
       </c>
       <c r="O20">
         <f>N20-F20</f>
-        <v>373.7294761532447</v>
+        <v>373.72947615324472</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43085.40385416667</v>
+        <v>43085.403854166667</v>
       </c>
       <c r="B21">
         <v>14500</v>
@@ -973,35 +997,35 @@
       </c>
       <c r="H21">
         <f>F21*0.0011</f>
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I21">
         <f>1/(G21/F21)</f>
-        <v>0.8497620666213461</v>
+        <v>0.84976206662134612</v>
       </c>
       <c r="K21">
         <f>I21</f>
-        <v>0.8497620666213461</v>
+        <v>0.84976206662134612</v>
       </c>
       <c r="L21">
         <f>K21*0.001</f>
-        <v>0.0008497620666213461</v>
+        <v>8.4976206662134614E-4</v>
       </c>
       <c r="M21">
         <v>642</v>
       </c>
       <c r="N21">
         <f>K21*M21</f>
-        <v>545.5472467709042</v>
+        <v>545.54724677090417</v>
       </c>
       <c r="O21">
         <f>N21-F21</f>
-        <v>45.54724677090417</v>
+        <v>45.547246770904167</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43085.42554398148</v>
+        <v>43085.425543981481</v>
       </c>
       <c r="B22">
         <v>14339</v>
@@ -1023,31 +1047,31 @@
       </c>
       <c r="I22">
         <f>1/(G22/F22)</f>
-        <v>416.6666666666667</v>
+        <v>416.66666666666669</v>
       </c>
       <c r="K22">
         <f>I22</f>
-        <v>416.6666666666667</v>
+        <v>416.66666666666669</v>
       </c>
       <c r="L22">
         <f>K22*0.001</f>
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M22">
         <v>1.4</v>
       </c>
       <c r="N22">
         <f>K22*M22</f>
-        <v>583.3333333333334</v>
+        <v>583.33333333333337</v>
       </c>
       <c r="O22">
         <f>N22-F22</f>
-        <v>83.33333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.333333333333371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43085.42649304398</v>
+        <v>43085.426493043982</v>
       </c>
       <c r="B23">
         <v>14557</v>
@@ -1059,7 +1083,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43085.447106458334</v>
       </c>
@@ -1073,9 +1097,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43085.58038193287</v>
+        <v>43085.580381932872</v>
       </c>
       <c r="B25">
         <v>14969</v>
@@ -1087,7 +1111,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43085.595324050926</v>
       </c>
@@ -1101,9 +1125,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43085.66239583334</v>
+        <v>43085.662395833337</v>
       </c>
       <c r="B27">
         <v>15178</v>
@@ -1115,9 +1139,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43085.76012731482</v>
+        <v>43085.760127314818</v>
       </c>
       <c r="B28">
         <v>15489</v>
@@ -1129,9 +1153,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43085.91917824074</v>
+        <v>43085.919178240743</v>
       </c>
       <c r="B29">
         <v>15798</v>
@@ -1143,9 +1167,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43085.94675924769</v>
+        <v>43085.946759247687</v>
       </c>
       <c r="B30">
         <v>15897</v>
@@ -1157,9 +1181,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43086.39868053241</v>
+        <v>43086.398680532409</v>
       </c>
       <c r="B31">
         <v>15650</v>
@@ -1171,7 +1195,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43086.544710636575</v>
       </c>
@@ -1187,7 +1211,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43086.89803240741</v>
+        <v>43086.898032407407</v>
       </c>
       <c r="B33">
         <v>15479</v>
@@ -1229,7 +1253,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43087.7247337963</v>
+        <v>43087.724733796298</v>
       </c>
       <c r="B36">
         <v>15499</v>
@@ -1257,7 +1281,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43087.908125</v>
+        <v>43087.908125000002</v>
       </c>
       <c r="B38">
         <v>15588</v>
@@ -1271,7 +1295,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43088.26417822917</v>
+        <v>43088.264178229168</v>
       </c>
       <c r="B39">
         <v>15546</v>
@@ -1285,7 +1309,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43088.85761572917</v>
+        <v>43088.857615729168</v>
       </c>
       <c r="B40">
         <v>15178</v>
@@ -1299,7 +1323,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43089.22134258102</v>
+        <v>43089.221342581019</v>
       </c>
       <c r="B41">
         <v>14331</v>
@@ -1313,7 +1337,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43089.93027777778</v>
+        <v>43089.930277777778</v>
       </c>
       <c r="B42">
         <v>13379</v>
@@ -1383,7 +1407,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43097.49694444444</v>
+        <v>43097.496944444443</v>
       </c>
       <c r="B47">
         <v>12199</v>
@@ -1397,7 +1421,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43097.71701388889</v>
+        <v>43097.717013888891</v>
       </c>
       <c r="B48">
         <v>12390</v>
@@ -1409,7 +1433,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43098.248148136576</v>
       </c>
@@ -1423,7 +1447,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43098.31473377315</v>
       </c>
@@ -1437,9 +1461,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43098.40153934028</v>
+        <v>43098.401539340281</v>
       </c>
       <c r="B51">
         <v>12399</v>
@@ -1451,9 +1475,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43098.5183912037</v>
+        <v>43098.518391203703</v>
       </c>
       <c r="B52">
         <v>12299</v>
@@ -1465,9 +1489,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43098.55631943287</v>
+        <v>43098.556319432872</v>
       </c>
       <c r="B53">
         <v>12301</v>
@@ -1481,7 +1505,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43098.71328703704</v>
+        <v>43098.713287037041</v>
       </c>
       <c r="B54">
         <v>12575</v>
@@ -1493,7 +1517,7 @@
         <v>642</v>
       </c>
       <c r="E54">
-        <v>1.2072</v>
+        <v>1.2072000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,7 +1539,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43098.7531944213</v>
+        <v>43098.753194421297</v>
       </c>
       <c r="B56">
         <v>12550</v>
@@ -1532,13 +1556,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43098.76490740741</v>
+        <v>43098.764907407407</v>
       </c>
       <c r="B57">
         <v>12500</v>
       </c>
       <c r="C57">
-        <v>2269.2</v>
+        <v>2269.1999999999998</v>
       </c>
       <c r="D57">
         <v>647.99</v>
@@ -1549,7 +1573,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43098.80824074074</v>
+        <v>43098.808240740742</v>
       </c>
       <c r="B58">
         <v>12523</v>
@@ -1566,13 +1590,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43098.85217590278</v>
+        <v>43098.852175902779</v>
       </c>
       <c r="B59">
         <v>12500</v>
       </c>
       <c r="C59">
-        <v>2268.8</v>
+        <v>2268.8000000000002</v>
       </c>
       <c r="D59">
         <v>647.5</v>
@@ -1581,53 +1605,247 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>43098.89494107639</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43098.895509259259</v>
+      </c>
+      <c r="B60">
+        <v>12439</v>
+      </c>
+      <c r="C60">
+        <v>2248.8000000000002</v>
+      </c>
+      <c r="D60">
+        <v>644.94000000000005</v>
+      </c>
+      <c r="E60">
+        <v>1.5982000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>11</v>
+      <c r="A61" s="2">
+        <v>43098.896701388891</v>
       </c>
       <c r="B61">
         <v>12439</v>
       </c>
       <c r="C61">
-        <v>2248.8</v>
+        <v>2248.5</v>
       </c>
       <c r="D61">
-        <v>644.94</v>
+        <v>644</v>
       </c>
       <c r="E61">
-        <v>1.5982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>43098.8961419213</v>
+        <v>1.5982000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43100.483113425929</v>
+      </c>
+      <c r="B62">
+        <v>11138</v>
+      </c>
+      <c r="C62">
+        <v>1962.98</v>
+      </c>
+      <c r="D62">
+        <v>605.25</v>
+      </c>
+      <c r="E62">
+        <v>1.6225000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2">
+        <v>43102.919236111113</v>
+      </c>
+      <c r="B63">
+        <v>12492</v>
+      </c>
+      <c r="C63">
+        <v>2111.5</v>
+      </c>
+      <c r="D63">
+        <v>729.95</v>
+      </c>
+      <c r="E63">
+        <v>1.7672000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43103.306192129632</v>
+      </c>
+      <c r="B64">
+        <v>12790</v>
+      </c>
+      <c r="C64">
+        <v>2267.9</v>
+      </c>
+      <c r="D64">
+        <v>744</v>
+      </c>
+      <c r="E64">
+        <v>1.9501999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>12750</v>
+      </c>
+      <c r="C65">
+        <v>2139.9</v>
+      </c>
+      <c r="D65">
+        <v>810</v>
+      </c>
+      <c r="E65">
+        <v>2.6391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="B63">
-        <v>12439</v>
-      </c>
-      <c r="C63">
-        <v>2248.5</v>
-      </c>
-      <c r="D63">
-        <v>644</v>
-      </c>
-      <c r="E63">
-        <v>1.5982</v>
+      <c r="B66">
+        <v>12599.99</v>
+      </c>
+      <c r="C66">
+        <v>2096</v>
+      </c>
+      <c r="D66">
+        <v>822.49</v>
+      </c>
+      <c r="E66">
+        <v>2.3035999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>12565</v>
+      </c>
+      <c r="C67">
+        <v>2055.4899999999998</v>
+      </c>
+      <c r="D67">
+        <v>827.99</v>
+      </c>
+      <c r="E67">
+        <v>2.4605999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>13598.88</v>
+      </c>
+      <c r="C68">
+        <v>2074.59</v>
+      </c>
+      <c r="D68">
+        <v>815.5</v>
+      </c>
+      <c r="E68">
+        <v>1.9664999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>13779</v>
+      </c>
+      <c r="C69">
+        <v>2025</v>
+      </c>
+      <c r="D69">
+        <v>820</v>
+      </c>
+      <c r="E69">
+        <v>2.1442999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>13787</v>
+      </c>
+      <c r="C70">
+        <v>2019</v>
+      </c>
+      <c r="D70">
+        <v>818.9</v>
+      </c>
+      <c r="E70">
+        <v>2.2042000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>13984.95</v>
+      </c>
+      <c r="C71">
+        <v>2048.9</v>
+      </c>
+      <c r="D71">
+        <v>811.99</v>
+      </c>
+      <c r="E71">
+        <v>2.1194000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>13670</v>
+      </c>
+      <c r="C72">
+        <v>2047.9</v>
+      </c>
+      <c r="D72">
+        <v>819.99</v>
+      </c>
+      <c r="E72">
+        <v>2.2227000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>14085</v>
+      </c>
+      <c r="C73">
+        <v>2115</v>
+      </c>
+      <c r="D73">
+        <v>835.9</v>
+      </c>
+      <c r="E73">
+        <v>2.1932999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1635,11 +1853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -1653,80 +1871,80 @@
     <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5" customHeight="1" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="H2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="11"/>
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <f>SUMIF(E4:E999,"BTC",(D4:D999))</f>
         <v>134</v>
       </c>
-      <c r="I3" s="15">
-        <f>INDEX(Daten!B:B,MAX(ISNUMBER(Daten!B3:B999)*ROW(Daten!B3:B999)))</f>
-        <v>12500</v>
+      <c r="I3" s="13">
+        <f t="array" ref="I3">INDEX(Daten!B:B,MAX(ISNUMBER(Daten!B3:B999)*ROW(Daten!B3:B999)))</f>
+        <v>14085</v>
       </c>
       <c r="J3">
         <f>SUMIF(E4:E999,"BTC",(B4:B999))</f>
@@ -1734,59 +1952,59 @@
       </c>
       <c r="K3">
         <f>I3*J3*0.99</f>
-        <v>123.75</v>
+        <v>139.44149999999999</v>
       </c>
       <c r="L3">
         <f>K3-H3</f>
-        <v>-10.25</v>
+        <v>5.4414999999999907</v>
       </c>
       <c r="N3" s="2">
-        <v>43098.54166664352</v>
+        <v>43098.541666643519</v>
       </c>
       <c r="O3">
         <v>0.19</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="16">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="14">
         <f>O3/R3</f>
-        <v>0.0018897951064253034</v>
-      </c>
-      <c r="R3" s="17">
-        <v>100.54</v>
+        <v>2.3590762354109758E-3</v>
+      </c>
+      <c r="R3" s="15">
+        <v>80.540000000000006</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43096.54166664352</v>
+        <v>43096.541666643519</v>
       </c>
       <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>13400</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>C4*B4</f>
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="H4">
         <f>SUMIF(E4:E999,"ETH",(D4:D999))</f>
         <v>123.5</v>
       </c>
-      <c r="I4" s="15">
-        <f>INDEX(Daten!D:D,MAX(ISNUMBER(Daten!D4:D1000)*ROW(Daten!D4:D1000)))</f>
-        <v>647.5</v>
+      <c r="I4" s="13">
+        <f t="array" ref="I4">INDEX(Daten!D:D,MAX(ISNUMBER(Daten!D4:D1000)*ROW(Daten!D4:D1000)))</f>
+        <v>835.9</v>
       </c>
       <c r="J4">
         <f>SUMIF(E4:E999,"ETH",(B4:B999))-SUMIF(P:P,"ETH",O:O)</f>
@@ -1801,33 +2019,33 @@
         <v>-123.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43096.54166664352</v>
+        <v>43096.541666643519</v>
       </c>
       <c r="B5">
         <v>0.19</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>650</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <f>C5*B5</f>
         <v>123.5</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <f>SUMIF(E6:E1001,"BCH",(D6:D1001))</f>
         <v>238.8</v>
       </c>
-      <c r="I5" s="15">
-        <f>INDEX(Daten!C:C,MAX(ISNUMBER(Daten!C4:C1001)*ROW(Daten!C4:C1001)))</f>
-        <v>2268.8</v>
+      <c r="I5" s="13">
+        <f t="array" ref="I5">INDEX(Daten!C:C,MAX(ISNUMBER(Daten!C4:C1001)*ROW(Daten!C4:C1001)))</f>
+        <v>2115</v>
       </c>
       <c r="J5">
         <f>SUMIF(E4:E999,"BCH",(B4:B999))</f>
@@ -1835,29 +2053,29 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>224.61120000000003</v>
+        <v>209.38499999999999</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-14.188799999999986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-29.41500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43096.54166664352</v>
+        <v>43096.541666643519</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>2388</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>C6*B6</f>
         <v>238.8</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -1866,28 +2084,28 @@
         <f>SUMIF(E4:E999,"RXP",(D4:D999))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15">
-        <f>INDEX(Daten!E:E,MAX(ISNUMBER(Daten!E3:E1000)*ROW(Daten!E3:E1000)))</f>
-        <v>1.59</v>
+      <c r="I6" s="13">
+        <f t="array" ref="I6">INDEX(Daten!E:E,MAX(ISNUMBER(Daten!E3:E1000)*ROW(Daten!E3:E1000)))</f>
+        <v>2.1932999999999998</v>
       </c>
       <c r="J6">
         <f>SUMIF(S:S,"XRP",R:R)</f>
-        <v>100.54</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="K6">
         <f>I6*J6*0.99</f>
-        <v>158.260014</v>
+        <v>174.88189818000001</v>
       </c>
       <c r="L6">
         <f>K6-H6</f>
-        <v>158.260014</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+        <v>174.88189818000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <f>SUM(H3:H6)</f>
@@ -1895,59 +2113,59 @@
       </c>
       <c r="K7">
         <f>SUM(K3:K6)</f>
-        <v>506.62121400000007</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+        <v>523.70839818000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>